--- a/biology/Médecine/Roberto_Beneduce/Roberto_Beneduce.xlsx
+++ b/biology/Médecine/Roberto_Beneduce/Roberto_Beneduce.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Roberto Beneduce est un anthropologue italien, considéré comme l'un des principaux représentants de l'ethnopsychiatrie.
 </t>
@@ -511,17 +523,19 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Roberto Beneduce est anthropologue et professeur d'anthropologie culturelle à l'Université de Turin. Ses domaines de recherche concernent le Mali (plateau Dogon), le Cameroun (pays Boulou), l'Ouganda (territoires Acholi), ainsi que le Mozambique. Il s'occupe plus en particulier de l'anthropologie médicale et psychologique ainsi que de l'anthropologie de la violence.
 Né à Naples, Beneduce obtient une Licence de Médecine et Chirurgie en 1981 à l'université de Naples. Puis en 1985 il se spécialise en psychiatre dans la même université. Deux ans après sa licence il suit à Rome un cours de psychothérapie familiale, tout en continuant à s'occuper de psychanalyse, d'anthropologie, et des rapports entre souffrance psychique et violence sociale (pauvreté, marginalité, exclusion sociale).
-Ces expériences l’amènerons à conduire plusieurs recherches sur l'épistémologie de la clinique, l'histoire de la psychiatrie et la  philosophie du langage avec Sergio Piro, qu'il considère comme son maître dans le domaine des sciences psychiatriques[1]. Dans le sillage de sa pensée, il travaillera dans les quartiers les plus pauvres de la ville de Naples (Miano, Piscinola, "quartier 167"), participant ainsi activement à un modèle de psychiatrie et de santé mentale ancré à la communauté. Ce parcours le poussera naturellement sur les rives de l’anthropologie sociale et à enquêter la condition des groupes subalternes. Parallèlement à son travail clinique et psychothérapeutique, et à ses recherches sur les immigrés et les réfugiés en Italie et en Europe, il participe à partir du 1988 à un projet du Conseil National des Recherches adressé à l'étude de la médecine traditionnelle en pays dogon, au Mali (Beneduce 1990, 1993, 1995-1996, 1996, etc.). 
-En  1993 il décide d'entreprendre un doctorat en anthropologie et ethnologie sur la transe et la possession en Afrique à l'École des hautes études en sciences sociales (EHESS), à Paris, sous la direction de  Marc Augé. La transe de possession lui donnera un modèle pour penser la condition des dépossédés, des colonisés, comme l'avait suggéré Frantz Fanon, mais aussi les stratégies de résistance symbolique à l'ordre dominant et les formes de manipulation du registre symbolique et religieux. La perspective théorique de Marc Augé lui donnera les outils pour interroger les formes du pouvoir et de la répression en Afrique. Il obtiendra son diplôme de doctorat en 2000 avec une thèse intitulée : Entre plusieurs mondes. Acteurs, discours et pratiques de la possession en Afrique[2] (le juri était composé, au-delà de Marc Augé, par Jean-Loup Amselle, René Collignon, André Mary et Elisabeth Roudinesco). Après son doctorat il se consacre à l'enseignement et à la recherche, tout en continuant son activité clinique auprès du Centre Fanon[3], qu'il fonde en 1993. Il s'agit d'un centre consacré aux citoyens étrangers, et plus particulièrement aux demandeurs d'asile, aux sans papiers, aux victimes de torture et de trafic des êtres humains.Il a été le premier centre d'ethnopsychiatrie en Italie et constitue aujourd'hui un lieu de référence à niveau national et international, participant à plusieurs réseaux dans la recherche sur les politiques de la citoyenneté et la clinique de la migration.
+Ces expériences l’amènerons à conduire plusieurs recherches sur l'épistémologie de la clinique, l'histoire de la psychiatrie et la  philosophie du langage avec Sergio Piro, qu'il considère comme son maître dans le domaine des sciences psychiatriques. Dans le sillage de sa pensée, il travaillera dans les quartiers les plus pauvres de la ville de Naples (Miano, Piscinola, "quartier 167"), participant ainsi activement à un modèle de psychiatrie et de santé mentale ancré à la communauté. Ce parcours le poussera naturellement sur les rives de l’anthropologie sociale et à enquêter la condition des groupes subalternes. Parallèlement à son travail clinique et psychothérapeutique, et à ses recherches sur les immigrés et les réfugiés en Italie et en Europe, il participe à partir du 1988 à un projet du Conseil National des Recherches adressé à l'étude de la médecine traditionnelle en pays dogon, au Mali (Beneduce 1990, 1993, 1995-1996, 1996, etc.). 
+En  1993 il décide d'entreprendre un doctorat en anthropologie et ethnologie sur la transe et la possession en Afrique à l'École des hautes études en sciences sociales (EHESS), à Paris, sous la direction de  Marc Augé. La transe de possession lui donnera un modèle pour penser la condition des dépossédés, des colonisés, comme l'avait suggéré Frantz Fanon, mais aussi les stratégies de résistance symbolique à l'ordre dominant et les formes de manipulation du registre symbolique et religieux. La perspective théorique de Marc Augé lui donnera les outils pour interroger les formes du pouvoir et de la répression en Afrique. Il obtiendra son diplôme de doctorat en 2000 avec une thèse intitulée : Entre plusieurs mondes. Acteurs, discours et pratiques de la possession en Afrique (le juri était composé, au-delà de Marc Augé, par Jean-Loup Amselle, René Collignon, André Mary et Elisabeth Roudinesco). Après son doctorat il se consacre à l'enseignement et à la recherche, tout en continuant son activité clinique auprès du Centre Fanon, qu'il fonde en 1993. Il s'agit d'un centre consacré aux citoyens étrangers, et plus particulièrement aux demandeurs d'asile, aux sans papiers, aux victimes de torture et de trafic des êtres humains.Il a été le premier centre d'ethnopsychiatrie en Italie et constitue aujourd'hui un lieu de référence à niveau national et international, participant à plusieurs réseaux dans la recherche sur les politiques de la citoyenneté et la clinique de la migration.
 Entre 2001 et 2010, il mène ses recherches au Cameroun, en travaillant sur les transformations des savoirs médicaux locaux (guérisseurs, "églises de la guérison", rituels thérapeutiques, prophétisme, etc.) (Beneduce 2010a, 2010b, 2013). Il conduira ses travaux en s'appuyant sur les recherches d'Eric de Rosny (avec lequel il mène des enquêtes en 2010), Jean-François Bayart et Peter Geschiere.
-En 2006, dans le cadre de la Mission Ethnologique Italienne en Afrique Subsaharienne[4], projet dont il est le coordinateur, il continuera à effectuer ses recherches en Afrique sur deux axes principaux :
+En 2006, dans le cadre de la Mission Ethnologique Italienne en Afrique Subsaharienne, projet dont il est le coordinateur, il continuera à effectuer ses recherches en Afrique sur deux axes principaux :
 les savoirs thérapeutiques traditionnels et leurs transformations, au Cameroun (2001-2014), en Ouganda (2013-2014), au Mozambique (2017-présent) et plus particulièrement au Mali, où il développera la recherche commencée en 1988 sur les savoirs médicaux sur le plateau Dogon (la dernière mission au Mali a été effectuée en 2021).
 les conséquences psychologiques des violences et les stratégies d'intervention face aux massacres et à la crise du lien social (en Érythrée, en Éthiopie, en République démocratique du Congo).
-Depuis 2000 il est professeur[5] d'Anthropologie médicale et psychologique et d'Anthropologie du corps et de la violence au département de Culture, Politique et Sociétés[6] de l'Université de Turin. Il a été visiting professor  en 2010 et respectivement à l'Université de San Buenaventura (Carthagène des Indes, Colombie) pour y tenir des cours sur l'anthropologie de la violence et de la mémoire. En 2012 il a été visiting professor à l'université de Berkeley (Département d'Anthropologie), où il tint le cours The psychic life of History[7]. Ensuite en 2013 à l'université de Libreville (Gabon), puis en 2014  à l'Université Jean Jaurès (Toulouse) et en 2018 en Corse, Chaire “Esprit Méditerranéen Paul Valery” ; en 2016 il a été fellow à l'IMéRA[8], à Marseille (Institut des études avancées)[9], en 2021 Directeur d'études invité à l'EPHE (Paris), et depuis le 2020 il est fellow de l'Institut Convergences Migrations (Paris).
+Depuis 2000 il est professeur d'Anthropologie médicale et psychologique et d'Anthropologie du corps et de la violence au département de Culture, Politique et Sociétés de l'Université de Turin. Il a été visiting professor  en 2010 et respectivement à l'Université de San Buenaventura (Carthagène des Indes, Colombie) pour y tenir des cours sur l'anthropologie de la violence et de la mémoire. En 2012 il a été visiting professor à l'université de Berkeley (Département d'Anthropologie), où il tint le cours The psychic life of History. Ensuite en 2013 à l'université de Libreville (Gabon), puis en 2014  à l'Université Jean Jaurès (Toulouse) et en 2018 en Corse, Chaire “Esprit Méditerranéen Paul Valery” ; en 2016 il a été fellow à l'IMéRA, à Marseille (Institut des études avancées), en 2021 Directeur d'études invité à l'EPHE (Paris), et depuis le 2020 il est fellow de l'Institut Convergences Migrations (Paris).
 </t>
         </is>
       </c>
@@ -550,14 +564,16 @@
           <t>Le Centre Frantz Fanon</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Centre Frantz Fanon[10] a été créé au début des années 1990 par Roberto Beneduce et est un Service de psychothérapie et support psychosocial pour les immigrés, les réfugiés et les victimes de torture. Son activation a été possible grâce aux accords stipulés entre l'association Frantz Fanon et les Départements de santé mentale de la ville de Turin.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Centre Frantz Fanon a été créé au début des années 1990 par Roberto Beneduce et est un Service de psychothérapie et support psychosocial pour les immigrés, les réfugiés et les victimes de torture. Son activation a été possible grâce aux accords stipulés entre l'association Frantz Fanon et les Départements de santé mentale de la ville de Turin.
 Durant ces années d'activités, l’équipe du centre, composée par une vingtaine d'opérateurs, a pris en charge près de 2900 patients (families immigrées, mineurs, demandeurs d'asile etc) . Le groupe de travail est composé de médecins-psychiatres et psychologues, une partie desquels a aussi une formation anthropologique, ainsi que de médiateurs culturels et chercheurs.
 Les modalités de travail du Centre prévoient des situations ou les patients sont dans la plupart des cas envoyés part d'autres services socio-sanitaires (hôpitaux, centres de santé mentale, etc.). Leurs conditions d'incertitude, de privation et parfois de crise aigüe, imposent qu'ils soient accueillis avec une extrême sensibilité par rapport aux formes de violence et de racisme institutionnels. D'autant plus s'ils ont subi souvent des expériences dramatiques, ce qui constitue pour beaucoup d'utilisateurs étrangers la règle.
 Une attention préliminaire est donnée à la structuration d'une places d'accueil la plus attentive possible, et capable de ne pas reproduire les contextes institutionnalisés, la routine des longues attentes, l'indifférence du personnel.
-L'accueil et le traitement psychothérapeutique sont réalisés par le personnel médico-psychiatrique et psychologique qui connaît, au-delà à l'Italien, au moins deux autres langues véhiculaires (anglais, français, espagnol etc.), et à la présence de médiateurs culturels ayant des compétences spécifiques en ce qui concerne l'assistance psychologique et psychiatrique[11].
-Le travail clinique de groupe, la critique rigoureuse de l'obsession diagnostique aujourd'hui dominante, et l'attention portée aux effets de la violence , à côté d'une analyse rigoureuse des dimensions linguistiques et symboliques des symptômes, constituent le chiffre distinctif du travail du Centre[12]. Dans un mot : pas de diagnostic sans une connaissance approfondie de la personne, de son milieu et de son histoire.
+L'accueil et le traitement psychothérapeutique sont réalisés par le personnel médico-psychiatrique et psychologique qui connaît, au-delà à l'Italien, au moins deux autres langues véhiculaires (anglais, français, espagnol etc.), et à la présence de médiateurs culturels ayant des compétences spécifiques en ce qui concerne l'assistance psychologique et psychiatrique.
+Le travail clinique de groupe, la critique rigoureuse de l'obsession diagnostique aujourd'hui dominante, et l'attention portée aux effets de la violence , à côté d'une analyse rigoureuse des dimensions linguistiques et symboliques des symptômes, constituent le chiffre distinctif du travail du Centre. Dans un mot : pas de diagnostic sans une connaissance approfondie de la personne, de son milieu et de son histoire.
 </t>
         </is>
       </c>
@@ -588,9 +604,14 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">En Italie
-En Italie, l'ethnopsychiatrie reste une discipline récente[13] mais un exemple d'étude ethnopsychiatrique a été la recherche pionnière menée par l'anthropologue et historien des religions Ernesto De Martino à la fin des années cinquante sur la magie cérémonielle en Lucanie, l'élaboration rituelle du deuil, et le phénomène du Tarentisme dans la sud Italie (Pouilles). Son livre posthume sur les apocalypses culturelles et pathologiques (La fine del mondo, 1977 ; traduction française 2016), demeure un exemple unique d'analyse sur les dimensions symboliques de la maladie et de la cure rituelle. Son dialogue avec les théories psychiatriques et ethnopsychiatriques de l'époque anticipe une réflexion médico-anthropologique très dense, où se trouvent finalement nouées l'analyse culturelle et symbolique, la psychopathologie et la psychanalyse, l'ethnologie, l'histoire du religieux, la littérature, le politique (la condition des classes paysannes et subalternes).
-De Martino rebaptisa cette approche disciplinaire comme psychiatrie culturelle et la décrivit comme une discipline qui s'occupe des troubles mentaux en relation avec le conditionnement culturel et social en focalisant son analyse sur le rapport entre les troubles psychiques et le symbolisme mythique-rituel, dont la fonction est pensée comme capable d'une action de re-intégration sociale, voire thérapeutique[14]. Au-delà d'Ernesto de Martino, un autre pionnier de l'ethnopsychiatrie italienne a été d'Michele Risso, psychiatre qui publie en 1964 avec Wolfang Böker le livre Sortilegio e delirio (Sortilège et délire), où il analyse la manière par laquelle prennent forme les troubles psychiques parmi des immigrés venant de l'Italie du Sud et travaillant en Suisse, guéris grâce aux traitements rituels et aux remèdes reçus par les spécialistes de leurs régions (les "magiciens").
+          <t>En Italie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Italie, l'ethnopsychiatrie reste une discipline récente mais un exemple d'étude ethnopsychiatrique a été la recherche pionnière menée par l'anthropologue et historien des religions Ernesto De Martino à la fin des années cinquante sur la magie cérémonielle en Lucanie, l'élaboration rituelle du deuil, et le phénomène du Tarentisme dans la sud Italie (Pouilles). Son livre posthume sur les apocalypses culturelles et pathologiques (La fine del mondo, 1977 ; traduction française 2016), demeure un exemple unique d'analyse sur les dimensions symboliques de la maladie et de la cure rituelle. Son dialogue avec les théories psychiatriques et ethnopsychiatriques de l'époque anticipe une réflexion médico-anthropologique très dense, où se trouvent finalement nouées l'analyse culturelle et symbolique, la psychopathologie et la psychanalyse, l'ethnologie, l'histoire du religieux, la littérature, le politique (la condition des classes paysannes et subalternes).
+De Martino rebaptisa cette approche disciplinaire comme psychiatrie culturelle et la décrivit comme une discipline qui s'occupe des troubles mentaux en relation avec le conditionnement culturel et social en focalisant son analyse sur le rapport entre les troubles psychiques et le symbolisme mythique-rituel, dont la fonction est pensée comme capable d'une action de re-intégration sociale, voire thérapeutique. Au-delà d'Ernesto de Martino, un autre pionnier de l'ethnopsychiatrie italienne a été d'Michele Risso, psychiatre qui publie en 1964 avec Wolfang Böker le livre Sortilegio e delirio (Sortilège et délire), où il analyse la manière par laquelle prennent forme les troubles psychiques parmi des immigrés venant de l'Italie du Sud et travaillant en Suisse, guéris grâce aux traitements rituels et aux remèdes reçus par les spécialistes de leurs régions (les "magiciens").
 L'ethnopsychiatrie de la migration
 À Turin, l'Association Frantz Fanon, fondée en 1997, mène des travaux cliniques et des recherches médico-anthropologiques dans le but de formuler le cadre théorique d'une ethnopsychiatrie critique et dynamique, ancrée à l'histoire et au contexte socio-politique, capable de conjuguer une pensée de la différence et de la culture avec une sensibilité analytique pour la parole et à une pratique des droits : capable, comme le dit Roberto Beneduce, d'écouter « la vie psychique de l'histoire », de « réparer » le passé et désaliéner  le futur.
 Conscient des enjeux politiques concernant la migration, Roberto Beneduce et les autres membres de l'Association, se sont engagés aussi dans une réflexion épistémologique vouée à interroger le sens dynamique des appartenances, les dimensions de la mémoire individuelle et collective, les politiques de l'asile (Beneduce 2018a) et de la citoyenneté. Analyser les malentendus au regard de l'ethnopsychiatrie (es racines racistes et impériales qui marquent la psychiatrie coloniale), tout en travaillant sur l'axe de l'expérience des subalternes, lui a permis de prendre distance des polémiques stériles autour de l'ethnopsychiatrie ("républicains" versus "culturalistes"),  et faire face aux défis des dimensions politiques de la souffrance.
@@ -623,7 +644,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>2019 : « “Madness and Despair are a Force”: Global Mental Health, and How People and Cultures Challenge the Hegemony of Western Psychiatry », Culture, Medicine and Psychiatry, 43, 3, p. 710-723.
 2019 : « Voir et faire voir. Des images et de leur usage dans un traitement rituel dogon », Cahiers d'anthropologie sociale, 17, 218-240.
@@ -685,13 +708,15 @@
           <t>Affiliations</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Membre de l’Institut des Mondes Africaines (IMAf), Paris et Aix-en-Provence[15].
-Membre de l’Associazione Internazionale Ernesto de Martino (EdM[16]), Rome.
-Membre de la Société des Africanistes[17], Paris.
-Membre du conseil scientifique du Fond d’Analyse des Sociétés Politiques – FASOPO (Paris, CERI – Sciences-Po)[18].
-Membre de la Società Italiana di Antropologia Medica (Pérouse)[19] / Société Italienne d’Anthropologie Médicale (SIAM).</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Membre de l’Institut des Mondes Africaines (IMAf), Paris et Aix-en-Provence.
+Membre de l’Associazione Internazionale Ernesto de Martino (EdM), Rome.
+Membre de la Société des Africanistes, Paris.
+Membre du conseil scientifique du Fond d’Analyse des Sociétés Politiques – FASOPO (Paris, CERI – Sciences-Po).
+Membre de la Società Italiana di Antropologia Medica (Pérouse) / Société Italienne d’Anthropologie Médicale (SIAM).</t>
         </is>
       </c>
     </row>
